--- a/Code/Results/Cases/Case_2_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9925913909323903</v>
+        <v>1.043628789963518</v>
       </c>
       <c r="D2">
-        <v>1.011207621502642</v>
+        <v>1.044186611904769</v>
       </c>
       <c r="E2">
-        <v>1.010876094504618</v>
+        <v>1.056918513702797</v>
       </c>
       <c r="F2">
-        <v>1.016619093975832</v>
+        <v>1.06390786281133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039433256327747</v>
+        <v>1.037222416452245</v>
       </c>
       <c r="J2">
-        <v>1.014995973004805</v>
+        <v>1.048698214599805</v>
       </c>
       <c r="K2">
-        <v>1.022512993695579</v>
+        <v>1.046958369591109</v>
       </c>
       <c r="L2">
-        <v>1.022185959339286</v>
+        <v>1.059654907143038</v>
       </c>
       <c r="M2">
-        <v>1.027851653721752</v>
+        <v>1.066625232154586</v>
       </c>
       <c r="N2">
-        <v>1.016437383708138</v>
+        <v>1.050187486351903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001222935796555</v>
+        <v>1.04528104831694</v>
       </c>
       <c r="D3">
-        <v>1.017745545251739</v>
+        <v>1.045438760760032</v>
       </c>
       <c r="E3">
-        <v>1.017657863982739</v>
+        <v>1.058323288267223</v>
       </c>
       <c r="F3">
-        <v>1.023986820023506</v>
+        <v>1.06541934479553</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041952698643032</v>
+        <v>1.037608732202804</v>
       </c>
       <c r="J3">
-        <v>1.021680317776932</v>
+        <v>1.049993916369561</v>
       </c>
       <c r="K3">
-        <v>1.028156293844821</v>
+        <v>1.04802055457833</v>
       </c>
       <c r="L3">
-        <v>1.028069686449579</v>
+        <v>1.060871913041368</v>
       </c>
       <c r="M3">
-        <v>1.034321715388961</v>
+        <v>1.067950071087328</v>
       </c>
       <c r="N3">
-        <v>1.023131221016546</v>
+        <v>1.051485028166791</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006617451713989</v>
+        <v>1.046347741975253</v>
       </c>
       <c r="D4">
-        <v>1.021833937105225</v>
+        <v>1.04624666998957</v>
       </c>
       <c r="E4">
-        <v>1.021917048000486</v>
+        <v>1.059231293567985</v>
       </c>
       <c r="F4">
-        <v>1.028610122693285</v>
+        <v>1.066396169807336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043514210371761</v>
+        <v>1.037856337250241</v>
       </c>
       <c r="J4">
-        <v>1.025853383897223</v>
+        <v>1.050829583227988</v>
       </c>
       <c r="K4">
-        <v>1.031675798376871</v>
+        <v>1.048704995129813</v>
       </c>
       <c r="L4">
-        <v>1.03175795851687</v>
+        <v>1.061657894302469</v>
       </c>
       <c r="M4">
-        <v>1.038375088551055</v>
+        <v>1.068805620376381</v>
       </c>
       <c r="N4">
-        <v>1.027310213369385</v>
+        <v>1.05232188176801</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00884256282841</v>
+        <v>1.046795610459589</v>
       </c>
       <c r="D5">
-        <v>1.023520707550648</v>
+        <v>1.0465857687135</v>
       </c>
       <c r="E5">
-        <v>1.023678561821568</v>
+        <v>1.05961279214777</v>
       </c>
       <c r="F5">
-        <v>1.030521353304357</v>
+        <v>1.066806546859658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155067762425</v>
+        <v>1.037959866773084</v>
       </c>
       <c r="J5">
-        <v>1.027573503098243</v>
+        <v>1.051180250882046</v>
       </c>
       <c r="K5">
-        <v>1.033125612471384</v>
+        <v>1.048992055591163</v>
       </c>
       <c r="L5">
-        <v>1.033281713306709</v>
+        <v>1.061987967712338</v>
       </c>
       <c r="M5">
-        <v>1.040049129534848</v>
+        <v>1.06916489150131</v>
       </c>
       <c r="N5">
-        <v>1.029032775336971</v>
+        <v>1.052673047410359</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009213741443419</v>
+        <v>1.046870776490634</v>
       </c>
       <c r="D6">
-        <v>1.023802103155708</v>
+        <v>1.046642673072088</v>
       </c>
       <c r="E6">
-        <v>1.02397267514743</v>
+        <v>1.059676834344699</v>
       </c>
       <c r="F6">
-        <v>1.03084041432392</v>
+        <v>1.06687543478174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044261778923279</v>
+        <v>1.037977216871366</v>
       </c>
       <c r="J6">
-        <v>1.02786037065896</v>
+        <v>1.05123909186158</v>
       </c>
       <c r="K6">
-        <v>1.033367346126798</v>
+        <v>1.049040214739288</v>
       </c>
       <c r="L6">
-        <v>1.03353603283703</v>
+        <v>1.062043367977148</v>
       </c>
       <c r="M6">
-        <v>1.040328500990439</v>
+        <v>1.069225191362398</v>
       </c>
       <c r="N6">
-        <v>1.029320050282528</v>
+        <v>1.052731971950832</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006647348082542</v>
+        <v>1.046353728637518</v>
       </c>
       <c r="D7">
-        <v>1.021856598977114</v>
+        <v>1.046251203179027</v>
       </c>
       <c r="E7">
-        <v>1.021940697245251</v>
+        <v>1.059236392051909</v>
       </c>
       <c r="F7">
-        <v>1.028635785358717</v>
+        <v>1.066401654374971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043522833777219</v>
+        <v>1.037857722827242</v>
       </c>
       <c r="J7">
-        <v>1.025876500009674</v>
+        <v>1.050834271394941</v>
       </c>
       <c r="K7">
-        <v>1.031695285603489</v>
+        <v>1.048708833500975</v>
       </c>
       <c r="L7">
-        <v>1.031778422196479</v>
+        <v>1.061662306137649</v>
       </c>
       <c r="M7">
-        <v>1.038397572670196</v>
+        <v>1.068810422542906</v>
       </c>
       <c r="N7">
-        <v>1.027333362309367</v>
+        <v>1.052326576592698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9955497835413898</v>
+        <v>1.044187688226992</v>
       </c>
       <c r="D8">
-        <v>1.013447845527203</v>
+        <v>1.044610265515618</v>
       </c>
       <c r="E8">
-        <v>1.013195922897163</v>
+        <v>1.057393470667892</v>
       </c>
       <c r="F8">
-        <v>1.019140215055372</v>
+        <v>1.064418929704601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040299486547708</v>
+        <v>1.037353465627501</v>
       </c>
       <c r="J8">
-        <v>1.017287869428181</v>
+        <v>1.049136675602168</v>
       </c>
       <c r="K8">
-        <v>1.02444868696469</v>
+        <v>1.047317937459875</v>
       </c>
       <c r="L8">
-        <v>1.024200065251675</v>
+        <v>1.060066515219684</v>
       </c>
       <c r="M8">
-        <v>1.030067014286401</v>
+        <v>1.067073326352768</v>
       </c>
       <c r="N8">
-        <v>1.018732534887319</v>
+        <v>1.050626570019182</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.974386299158541</v>
+        <v>1.04035172465163</v>
       </c>
       <c r="D9">
-        <v>0.9974396033309373</v>
+        <v>1.04170064098358</v>
       </c>
       <c r="E9">
-        <v>0.9967043871688525</v>
+        <v>1.054138193448349</v>
       </c>
       <c r="F9">
-        <v>1.001198218069044</v>
+        <v>1.060915514917693</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034049800954273</v>
+        <v>1.036446633657535</v>
       </c>
       <c r="J9">
-        <v>1.000877135223055</v>
+        <v>1.04612391386863</v>
       </c>
       <c r="K9">
-        <v>1.010574358225647</v>
+        <v>1.044844733994035</v>
       </c>
       <c r="L9">
-        <v>1.009851160650785</v>
+        <v>1.057242715638188</v>
       </c>
       <c r="M9">
-        <v>1.014271884888737</v>
+        <v>1.063998901285798</v>
       </c>
       <c r="N9">
-        <v>1.002298495557284</v>
+        <v>1.047609529818414</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9589562655275635</v>
+        <v>1.037780816354047</v>
       </c>
       <c r="D10">
-        <v>0.9858007463935092</v>
+        <v>1.039748235153159</v>
       </c>
       <c r="E10">
-        <v>0.9848322814898661</v>
+        <v>1.05196229666549</v>
       </c>
       <c r="F10">
-        <v>0.9882533330890393</v>
+        <v>1.058572926461472</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029430376495945</v>
+        <v>1.035829603902422</v>
       </c>
       <c r="J10">
-        <v>0.9888985694249404</v>
+        <v>1.044100461375183</v>
       </c>
       <c r="K10">
-        <v>1.000431194335704</v>
+        <v>1.043180494962868</v>
       </c>
       <c r="L10">
-        <v>0.9994809025690212</v>
+        <v>1.055351816769756</v>
       </c>
       <c r="M10">
-        <v>1.002837966365932</v>
+        <v>1.06193976696596</v>
       </c>
       <c r="N10">
-        <v>0.990302918821775</v>
+        <v>1.045583203790332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9518958722069245</v>
+        <v>1.036664193236477</v>
       </c>
       <c r="D11">
-        <v>0.9804865122971663</v>
+        <v>1.038899708149144</v>
       </c>
       <c r="E11">
-        <v>0.9794427827814327</v>
+        <v>1.05101865180564</v>
       </c>
       <c r="F11">
-        <v>0.9823686607361222</v>
+        <v>1.057556787198023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027303655335598</v>
+        <v>1.035559420615947</v>
       </c>
       <c r="J11">
-        <v>0.9834164153892179</v>
+        <v>1.043220611859421</v>
       </c>
       <c r="K11">
-        <v>0.995786051628898</v>
+        <v>1.042456095186066</v>
       </c>
       <c r="L11">
-        <v>0.9947630776674579</v>
+        <v>1.054530957314916</v>
       </c>
       <c r="M11">
-        <v>0.9976309181818364</v>
+        <v>1.061045773647551</v>
       </c>
       <c r="N11">
-        <v>0.9848129794985101</v>
+        <v>1.044702104787338</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9492096260989685</v>
+        <v>1.036248904070339</v>
       </c>
       <c r="D12">
-        <v>0.9784667039615754</v>
+        <v>1.038584048592972</v>
       </c>
       <c r="E12">
-        <v>0.9773993872843537</v>
+        <v>1.050667910726249</v>
       </c>
       <c r="F12">
-        <v>0.9801361561568289</v>
+        <v>1.057179069757234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026492751314097</v>
+        <v>1.035458607163529</v>
       </c>
       <c r="J12">
-        <v>0.9813306981297387</v>
+        <v>1.042893232418335</v>
       </c>
       <c r="K12">
-        <v>0.9940184119596571</v>
+        <v>1.04218644485152</v>
       </c>
       <c r="L12">
-        <v>0.9929727776970588</v>
+        <v>1.05422573162288</v>
       </c>
       <c r="M12">
-        <v>0.99565407412431</v>
+        <v>1.060713338578848</v>
       </c>
       <c r="N12">
-        <v>0.9827243002812872</v>
+        <v>1.044374260429895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9497888385812409</v>
+        <v>1.036338009024149</v>
       </c>
       <c r="D13">
-        <v>0.9789021177685793</v>
+        <v>1.038651780465593</v>
       </c>
       <c r="E13">
-        <v>0.9778396536114629</v>
+        <v>1.050743156401881</v>
       </c>
       <c r="F13">
-        <v>0.9806172317369459</v>
+        <v>1.057260104178734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026667675494103</v>
+        <v>1.035480252658812</v>
       </c>
       <c r="J13">
-        <v>0.9817804170109341</v>
+        <v>1.042963482128274</v>
       </c>
       <c r="K13">
-        <v>0.9943995626811372</v>
+        <v>1.042244311976255</v>
       </c>
       <c r="L13">
-        <v>0.993358583977235</v>
+        <v>1.054291218272239</v>
       </c>
       <c r="M13">
-        <v>0.9960801224188862</v>
+        <v>1.060784663750185</v>
       </c>
       <c r="N13">
-        <v>0.9831746578148775</v>
+        <v>1.04444460990248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9516751688823251</v>
+        <v>1.036629876110701</v>
       </c>
       <c r="D14">
-        <v>0.9803205193921436</v>
+        <v>1.038873625456799</v>
       </c>
       <c r="E14">
-        <v>0.9792747477173885</v>
+        <v>1.050989664169513</v>
       </c>
       <c r="F14">
-        <v>0.9821851031989173</v>
+        <v>1.057525570688526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027237065407411</v>
+        <v>1.035551096655843</v>
       </c>
       <c r="J14">
-        <v>0.9832450491927748</v>
+        <v>1.043193562145869</v>
       </c>
       <c r="K14">
-        <v>0.9956408262006489</v>
+        <v>1.042433817608628</v>
       </c>
       <c r="L14">
-        <v>0.9946158874927028</v>
+        <v>1.054505733879683</v>
       </c>
       <c r="M14">
-        <v>0.9974684099694973</v>
+        <v>1.061018301984982</v>
       </c>
       <c r="N14">
-        <v>0.984641369942412</v>
+        <v>1.04467501666009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9528287368454754</v>
+        <v>1.036809634972777</v>
       </c>
       <c r="D15">
-        <v>0.9811882147129622</v>
+        <v>1.039010247732735</v>
       </c>
       <c r="E15">
-        <v>0.9801533237294895</v>
+        <v>1.051141515079452</v>
       </c>
       <c r="F15">
-        <v>0.9831447824941744</v>
+        <v>1.057689096212327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027585046358536</v>
+        <v>1.035594685526902</v>
       </c>
       <c r="J15">
-        <v>0.9841407466585553</v>
+        <v>1.043335246948447</v>
       </c>
       <c r="K15">
-        <v>0.9963998765745729</v>
+        <v>1.042550501683015</v>
       </c>
       <c r="L15">
-        <v>0.9953854115484303</v>
+        <v>1.054637861115917</v>
       </c>
       <c r="M15">
-        <v>0.9983179811911166</v>
+        <v>1.061162205412121</v>
       </c>
       <c r="N15">
-        <v>0.985538339401332</v>
+        <v>1.04481690267134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9594163029218118</v>
+        <v>1.03785485003422</v>
       </c>
       <c r="D16">
-        <v>0.9861472730474427</v>
+        <v>1.039804482481406</v>
       </c>
       <c r="E16">
-        <v>0.9851843859518713</v>
+        <v>1.05202489159436</v>
       </c>
       <c r="F16">
-        <v>0.988637607973417</v>
+        <v>1.058640325843706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029568696397337</v>
+        <v>1.035847471432233</v>
       </c>
       <c r="J16">
-        <v>0.9892557685313882</v>
+        <v>1.044158775586286</v>
       </c>
       <c r="K16">
-        <v>1.000733801522131</v>
+        <v>1.043228490716019</v>
       </c>
       <c r="L16">
-        <v>0.9997889128691417</v>
+        <v>1.0554062498167</v>
       </c>
       <c r="M16">
-        <v>1.003177798734208</v>
+        <v>1.061999047529095</v>
       </c>
       <c r="N16">
-        <v>0.9906606251919255</v>
+        <v>1.045641600814304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9634425933342288</v>
+        <v>1.038509564677388</v>
       </c>
       <c r="D17">
-        <v>0.9891814250098523</v>
+        <v>1.040301842156377</v>
       </c>
       <c r="E17">
-        <v>0.9882709168300244</v>
+        <v>1.05257861125379</v>
       </c>
       <c r="F17">
-        <v>0.9920052085502978</v>
+        <v>1.059236522530102</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030777848826426</v>
+        <v>1.03600523004666</v>
       </c>
       <c r="J17">
-        <v>0.9923819120285919</v>
+        <v>1.044674359977269</v>
       </c>
       <c r="K17">
-        <v>1.003381839849401</v>
+        <v>1.043652758705302</v>
       </c>
       <c r="L17">
-        <v>1.002487773012044</v>
+        <v>1.055887674973984</v>
       </c>
       <c r="M17">
-        <v>1.006154882712267</v>
+        <v>1.062523334137406</v>
       </c>
       <c r="N17">
-        <v>0.9937912081714687</v>
+        <v>1.046157917394261</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9657549945326878</v>
+        <v>1.038891121304108</v>
       </c>
       <c r="D18">
-        <v>0.9909250547309566</v>
+        <v>1.040591643037928</v>
       </c>
       <c r="E18">
-        <v>0.9900475421032658</v>
+        <v>1.052901445608273</v>
       </c>
       <c r="F18">
-        <v>0.9939428630318419</v>
+        <v>1.059584102630851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031471070042084</v>
+        <v>1.036096958267842</v>
       </c>
       <c r="J18">
-        <v>0.9941772207842438</v>
+        <v>1.044974737199197</v>
       </c>
       <c r="K18">
-        <v>1.004902294008349</v>
+        <v>1.043899863597761</v>
       </c>
       <c r="L18">
-        <v>1.004040308159906</v>
+        <v>1.056168281247644</v>
       </c>
       <c r="M18">
-        <v>1.007866976118484</v>
+        <v>1.062828913173848</v>
       </c>
       <c r="N18">
-        <v>0.9955890664714784</v>
+        <v>1.046458721186298</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9665375332965244</v>
+        <v>1.039021167162497</v>
       </c>
       <c r="D19">
-        <v>0.9915152820541566</v>
+        <v>1.040690406955043</v>
       </c>
       <c r="E19">
-        <v>0.9906494209687656</v>
+        <v>1.05301150014076</v>
       </c>
       <c r="F19">
-        <v>0.9945991703060097</v>
+        <v>1.059702589707619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031705449525441</v>
+        <v>1.036128186196256</v>
       </c>
       <c r="J19">
-        <v>0.9947847450047465</v>
+        <v>1.045077098285613</v>
       </c>
       <c r="K19">
-        <v>1.005416758297991</v>
+        <v>1.043984058607271</v>
       </c>
       <c r="L19">
-        <v>1.004566111586839</v>
+        <v>1.056263926912521</v>
       </c>
       <c r="M19">
-        <v>1.008446736979968</v>
+        <v>1.062933069258186</v>
       </c>
       <c r="N19">
-        <v>0.9961974534460585</v>
+        <v>1.046561227637197</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9630143861459621</v>
+        <v>1.038439353955384</v>
       </c>
       <c r="D20">
-        <v>0.9888586239910696</v>
+        <v>1.040248511333351</v>
       </c>
       <c r="E20">
-        <v>0.987942239974005</v>
+        <v>1.052519217018943</v>
       </c>
       <c r="F20">
-        <v>0.9916466808203241</v>
+        <v>1.059172574064248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030649378367419</v>
+        <v>1.035988334034082</v>
       </c>
       <c r="J20">
-        <v>0.9920494484989596</v>
+        <v>1.044619079392132</v>
       </c>
       <c r="K20">
-        <v>1.003100251568041</v>
+        <v>1.043607276424231</v>
       </c>
       <c r="L20">
-        <v>1.002200476735829</v>
+        <v>1.055836043448174</v>
       </c>
       <c r="M20">
-        <v>1.005838020990585</v>
+        <v>1.062467106846016</v>
       </c>
       <c r="N20">
-        <v>0.9934582725054905</v>
+        <v>1.046102558304352</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9511215100576029</v>
+        <v>1.036543943154268</v>
       </c>
       <c r="D21">
-        <v>0.9799041425114596</v>
+        <v>1.03880831093347</v>
       </c>
       <c r="E21">
-        <v>0.9788533301081199</v>
+        <v>1.050917080179689</v>
       </c>
       <c r="F21">
-        <v>0.9817247340670346</v>
+        <v>1.057447405176588</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027069989666233</v>
+        <v>1.035530247465331</v>
       </c>
       <c r="J21">
-        <v>0.9828151598290444</v>
+        <v>1.043125824978375</v>
       </c>
       <c r="K21">
-        <v>0.9952765079660909</v>
+        <v>1.042378028897339</v>
       </c>
       <c r="L21">
-        <v>0.9942467217554712</v>
+        <v>1.054442573333998</v>
       </c>
       <c r="M21">
-        <v>0.9970608105172148</v>
+        <v>1.060949511531402</v>
       </c>
       <c r="N21">
-        <v>0.9842108700864759</v>
+        <v>1.044607183298049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9432711908411713</v>
+        <v>1.035349174837594</v>
       </c>
       <c r="D22">
-        <v>0.9740058586713534</v>
+        <v>1.037900024424536</v>
       </c>
       <c r="E22">
-        <v>0.972896141530334</v>
+        <v>1.049908421651782</v>
       </c>
       <c r="F22">
-        <v>0.9752134516045261</v>
+        <v>1.056361109047541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024697092579318</v>
+        <v>1.03523959381533</v>
       </c>
       <c r="J22">
-        <v>0.9767202306691585</v>
+        <v>1.042183687054715</v>
       </c>
       <c r="K22">
-        <v>0.990110471759774</v>
+        <v>1.041601815028599</v>
       </c>
       <c r="L22">
-        <v>0.9890243558558431</v>
+        <v>1.05356457655262</v>
       </c>
       <c r="M22">
-        <v>0.9912924626442268</v>
+        <v>1.059993216001792</v>
       </c>
       <c r="N22">
-        <v>0.9781072854280849</v>
+        <v>1.043663707430473</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9474706993590528</v>
+        <v>1.035982837911154</v>
       </c>
       <c r="D23">
-        <v>0.9771598299803813</v>
+        <v>1.038381790638369</v>
       </c>
       <c r="E23">
-        <v>0.9760787129759864</v>
+        <v>1.050443259837543</v>
       </c>
       <c r="F23">
-        <v>0.9786928532334404</v>
+        <v>1.056937131595188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025967348366236</v>
+        <v>1.035393926009059</v>
       </c>
       <c r="J23">
-        <v>0.9799805683613393</v>
+        <v>1.042683445846802</v>
       </c>
       <c r="K23">
-        <v>0.9928740878718553</v>
+        <v>1.042013620076422</v>
       </c>
       <c r="L23">
-        <v>0.9918152345861311</v>
+        <v>1.054030198995039</v>
       </c>
       <c r="M23">
-        <v>0.9943756523999793</v>
+        <v>1.060500370762317</v>
       </c>
       <c r="N23">
-        <v>0.9813722531737544</v>
+        <v>1.044164175937367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9632079855003203</v>
+        <v>1.038471080169916</v>
       </c>
       <c r="D24">
-        <v>0.9890045643163554</v>
+        <v>1.040272610165599</v>
       </c>
       <c r="E24">
-        <v>0.9880908278219626</v>
+        <v>1.052546055152785</v>
       </c>
       <c r="F24">
-        <v>0.9918087659561694</v>
+        <v>1.05920147015291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03070746575427</v>
+        <v>1.035995969510105</v>
       </c>
       <c r="J24">
-        <v>0.9921997609798333</v>
+        <v>1.044644059404217</v>
       </c>
       <c r="K24">
-        <v>1.003227563363832</v>
+        <v>1.043627829032358</v>
       </c>
       <c r="L24">
-        <v>1.002330360231695</v>
+        <v>1.055859374133061</v>
       </c>
       <c r="M24">
-        <v>1.005981272221422</v>
+        <v>1.062492514244803</v>
       </c>
       <c r="N24">
-        <v>0.9936087984473283</v>
+        <v>1.04612757379092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9800707831041587</v>
+        <v>1.041345755358387</v>
       </c>
       <c r="D25">
-        <v>1.001734957665436</v>
+        <v>1.042455042558827</v>
       </c>
       <c r="E25">
-        <v>1.001110343056633</v>
+        <v>1.054980733578801</v>
       </c>
       <c r="F25">
-        <v>1.005996149729246</v>
+        <v>1.06182242296154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035739628830685</v>
+        <v>1.036683255943923</v>
       </c>
       <c r="J25">
-        <v>1.005287976088089</v>
+        <v>1.046905377023637</v>
       </c>
       <c r="K25">
-        <v>1.014306400222317</v>
+        <v>1.045486802772753</v>
       </c>
       <c r="L25">
-        <v>1.013691446797929</v>
+        <v>1.05797417872744</v>
       </c>
       <c r="M25">
-        <v>1.018502090887586</v>
+        <v>1.064795355829644</v>
       </c>
       <c r="N25">
-        <v>1.006715600322277</v>
+        <v>1.048392102740736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043628789963518</v>
+        <v>0.9925913909323906</v>
       </c>
       <c r="D2">
-        <v>1.044186611904769</v>
+        <v>1.011207621502643</v>
       </c>
       <c r="E2">
-        <v>1.056918513702797</v>
+        <v>1.010876094504618</v>
       </c>
       <c r="F2">
-        <v>1.06390786281133</v>
+        <v>1.016619093975833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037222416452245</v>
+        <v>1.039433256327747</v>
       </c>
       <c r="J2">
-        <v>1.048698214599805</v>
+        <v>1.014995973004806</v>
       </c>
       <c r="K2">
-        <v>1.046958369591109</v>
+        <v>1.02251299369558</v>
       </c>
       <c r="L2">
-        <v>1.059654907143038</v>
+        <v>1.022185959339286</v>
       </c>
       <c r="M2">
-        <v>1.066625232154586</v>
+        <v>1.027851653721752</v>
       </c>
       <c r="N2">
-        <v>1.050187486351903</v>
+        <v>1.016437383708138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04528104831694</v>
+        <v>1.001222935796554</v>
       </c>
       <c r="D3">
-        <v>1.045438760760032</v>
+        <v>1.017745545251738</v>
       </c>
       <c r="E3">
-        <v>1.058323288267223</v>
+        <v>1.017657863982739</v>
       </c>
       <c r="F3">
-        <v>1.06541934479553</v>
+        <v>1.023986820023507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037608732202804</v>
+        <v>1.041952698643032</v>
       </c>
       <c r="J3">
-        <v>1.049993916369561</v>
+        <v>1.021680317776932</v>
       </c>
       <c r="K3">
-        <v>1.04802055457833</v>
+        <v>1.02815629384482</v>
       </c>
       <c r="L3">
-        <v>1.060871913041368</v>
+        <v>1.028069686449579</v>
       </c>
       <c r="M3">
-        <v>1.067950071087328</v>
+        <v>1.034321715388961</v>
       </c>
       <c r="N3">
-        <v>1.051485028166791</v>
+        <v>1.023131221016546</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046347741975253</v>
+        <v>1.006617451713989</v>
       </c>
       <c r="D4">
-        <v>1.04624666998957</v>
+        <v>1.021833937105226</v>
       </c>
       <c r="E4">
-        <v>1.059231293567985</v>
+        <v>1.021917048000486</v>
       </c>
       <c r="F4">
-        <v>1.066396169807336</v>
+        <v>1.028610122693285</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037856337250241</v>
+        <v>1.043514210371761</v>
       </c>
       <c r="J4">
-        <v>1.050829583227988</v>
+        <v>1.025853383897223</v>
       </c>
       <c r="K4">
-        <v>1.048704995129813</v>
+        <v>1.031675798376871</v>
       </c>
       <c r="L4">
-        <v>1.061657894302469</v>
+        <v>1.031757958516871</v>
       </c>
       <c r="M4">
-        <v>1.068805620376381</v>
+        <v>1.038375088551055</v>
       </c>
       <c r="N4">
-        <v>1.05232188176801</v>
+        <v>1.027310213369385</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046795610459589</v>
+        <v>1.008842562828409</v>
       </c>
       <c r="D5">
-        <v>1.0465857687135</v>
+        <v>1.023520707550647</v>
       </c>
       <c r="E5">
-        <v>1.05961279214777</v>
+        <v>1.023678561821568</v>
       </c>
       <c r="F5">
-        <v>1.066806546859658</v>
+        <v>1.030521353304356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037959866773084</v>
+        <v>1.044155067762424</v>
       </c>
       <c r="J5">
-        <v>1.051180250882046</v>
+        <v>1.027573503098242</v>
       </c>
       <c r="K5">
-        <v>1.048992055591163</v>
+        <v>1.033125612471383</v>
       </c>
       <c r="L5">
-        <v>1.061987967712338</v>
+        <v>1.033281713306709</v>
       </c>
       <c r="M5">
-        <v>1.06916489150131</v>
+        <v>1.040049129534848</v>
       </c>
       <c r="N5">
-        <v>1.052673047410359</v>
+        <v>1.029032775336969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046870776490634</v>
+        <v>1.009213741443419</v>
       </c>
       <c r="D6">
-        <v>1.046642673072088</v>
+        <v>1.023802103155708</v>
       </c>
       <c r="E6">
-        <v>1.059676834344699</v>
+        <v>1.023972675147431</v>
       </c>
       <c r="F6">
-        <v>1.06687543478174</v>
+        <v>1.030840414323921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037977216871366</v>
+        <v>1.044261778923279</v>
       </c>
       <c r="J6">
-        <v>1.05123909186158</v>
+        <v>1.02786037065896</v>
       </c>
       <c r="K6">
-        <v>1.049040214739288</v>
+        <v>1.033367346126799</v>
       </c>
       <c r="L6">
-        <v>1.062043367977148</v>
+        <v>1.033536032837031</v>
       </c>
       <c r="M6">
-        <v>1.069225191362398</v>
+        <v>1.04032850099044</v>
       </c>
       <c r="N6">
-        <v>1.052731971950832</v>
+        <v>1.029320050282528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046353728637518</v>
+        <v>1.006647348082541</v>
       </c>
       <c r="D7">
-        <v>1.046251203179027</v>
+        <v>1.021856598977114</v>
       </c>
       <c r="E7">
-        <v>1.059236392051909</v>
+        <v>1.02194069724525</v>
       </c>
       <c r="F7">
-        <v>1.066401654374971</v>
+        <v>1.028635785358716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037857722827242</v>
+        <v>1.043522833777219</v>
       </c>
       <c r="J7">
-        <v>1.050834271394941</v>
+        <v>1.025876500009673</v>
       </c>
       <c r="K7">
-        <v>1.048708833500975</v>
+        <v>1.031695285603489</v>
       </c>
       <c r="L7">
-        <v>1.061662306137649</v>
+        <v>1.031778422196479</v>
       </c>
       <c r="M7">
-        <v>1.068810422542906</v>
+        <v>1.038397572670195</v>
       </c>
       <c r="N7">
-        <v>1.052326576592698</v>
+        <v>1.027333362309366</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044187688226992</v>
+        <v>0.9955497835413903</v>
       </c>
       <c r="D8">
-        <v>1.044610265515618</v>
+        <v>1.013447845527204</v>
       </c>
       <c r="E8">
-        <v>1.057393470667892</v>
+        <v>1.013195922897163</v>
       </c>
       <c r="F8">
-        <v>1.064418929704601</v>
+        <v>1.019140215055372</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037353465627501</v>
+        <v>1.040299486547708</v>
       </c>
       <c r="J8">
-        <v>1.049136675602168</v>
+        <v>1.017287869428182</v>
       </c>
       <c r="K8">
-        <v>1.047317937459875</v>
+        <v>1.02444868696469</v>
       </c>
       <c r="L8">
-        <v>1.060066515219684</v>
+        <v>1.024200065251675</v>
       </c>
       <c r="M8">
-        <v>1.067073326352768</v>
+        <v>1.030067014286401</v>
       </c>
       <c r="N8">
-        <v>1.050626570019182</v>
+        <v>1.01873253488732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04035172465163</v>
+        <v>0.9743862991585426</v>
       </c>
       <c r="D9">
-        <v>1.04170064098358</v>
+        <v>0.9974396033309384</v>
       </c>
       <c r="E9">
-        <v>1.054138193448349</v>
+        <v>0.9967043871688532</v>
       </c>
       <c r="F9">
-        <v>1.060915514917693</v>
+        <v>1.001198218069045</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036446633657535</v>
+        <v>1.034049800954274</v>
       </c>
       <c r="J9">
-        <v>1.04612391386863</v>
+        <v>1.000877135223057</v>
       </c>
       <c r="K9">
-        <v>1.044844733994035</v>
+        <v>1.010574358225648</v>
       </c>
       <c r="L9">
-        <v>1.057242715638188</v>
+        <v>1.009851160650786</v>
       </c>
       <c r="M9">
-        <v>1.063998901285798</v>
+        <v>1.014271884888737</v>
       </c>
       <c r="N9">
-        <v>1.047609529818414</v>
+        <v>1.002298495557285</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037780816354047</v>
+        <v>0.9589562655275652</v>
       </c>
       <c r="D10">
-        <v>1.039748235153159</v>
+        <v>0.9858007463935105</v>
       </c>
       <c r="E10">
-        <v>1.05196229666549</v>
+        <v>0.9848322814898667</v>
       </c>
       <c r="F10">
-        <v>1.058572926461472</v>
+        <v>0.9882533330890397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035829603902422</v>
+        <v>1.029430376495946</v>
       </c>
       <c r="J10">
-        <v>1.044100461375183</v>
+        <v>0.9888985694249416</v>
       </c>
       <c r="K10">
-        <v>1.043180494962868</v>
+        <v>1.000431194335705</v>
       </c>
       <c r="L10">
-        <v>1.055351816769756</v>
+        <v>0.9994809025690216</v>
       </c>
       <c r="M10">
-        <v>1.06193976696596</v>
+        <v>1.002837966365933</v>
       </c>
       <c r="N10">
-        <v>1.045583203790332</v>
+        <v>0.9903029188217766</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036664193236477</v>
+        <v>0.951895872206924</v>
       </c>
       <c r="D11">
-        <v>1.038899708149144</v>
+        <v>0.9804865122971655</v>
       </c>
       <c r="E11">
-        <v>1.05101865180564</v>
+        <v>0.9794427827814319</v>
       </c>
       <c r="F11">
-        <v>1.057556787198023</v>
+        <v>0.9823686607361216</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035559420615947</v>
+        <v>1.027303655335597</v>
       </c>
       <c r="J11">
-        <v>1.043220611859421</v>
+        <v>0.9834164153892173</v>
       </c>
       <c r="K11">
-        <v>1.042456095186066</v>
+        <v>0.9957860516288972</v>
       </c>
       <c r="L11">
-        <v>1.054530957314916</v>
+        <v>0.9947630776674571</v>
       </c>
       <c r="M11">
-        <v>1.061045773647551</v>
+        <v>0.9976309181818357</v>
       </c>
       <c r="N11">
-        <v>1.044702104787338</v>
+        <v>0.9848129794985095</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036248904070339</v>
+        <v>0.9492096260989665</v>
       </c>
       <c r="D12">
-        <v>1.038584048592972</v>
+        <v>0.9784667039615738</v>
       </c>
       <c r="E12">
-        <v>1.050667910726249</v>
+        <v>0.9773993872843533</v>
       </c>
       <c r="F12">
-        <v>1.057179069757234</v>
+        <v>0.9801361561568283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035458607163529</v>
+        <v>1.026492751314097</v>
       </c>
       <c r="J12">
-        <v>1.042893232418335</v>
+        <v>0.9813306981297369</v>
       </c>
       <c r="K12">
-        <v>1.04218644485152</v>
+        <v>0.9940184119596553</v>
       </c>
       <c r="L12">
-        <v>1.05422573162288</v>
+        <v>0.9929727776970587</v>
       </c>
       <c r="M12">
-        <v>1.060713338578848</v>
+        <v>0.9956540741243093</v>
       </c>
       <c r="N12">
-        <v>1.044374260429895</v>
+        <v>0.9827243002812858</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036338009024149</v>
+        <v>0.94978883858124</v>
       </c>
       <c r="D13">
-        <v>1.038651780465593</v>
+        <v>0.9789021177685782</v>
       </c>
       <c r="E13">
-        <v>1.050743156401881</v>
+        <v>0.9778396536114625</v>
       </c>
       <c r="F13">
-        <v>1.057260104178734</v>
+        <v>0.9806172317369453</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035480252658812</v>
+        <v>1.026667675494102</v>
       </c>
       <c r="J13">
-        <v>1.042963482128274</v>
+        <v>0.9817804170109332</v>
       </c>
       <c r="K13">
-        <v>1.042244311976255</v>
+        <v>0.9943995626811363</v>
       </c>
       <c r="L13">
-        <v>1.054291218272239</v>
+        <v>0.9933585839772345</v>
       </c>
       <c r="M13">
-        <v>1.060784663750185</v>
+        <v>0.9960801224188858</v>
       </c>
       <c r="N13">
-        <v>1.04444460990248</v>
+        <v>0.9831746578148765</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036629876110701</v>
+        <v>0.9516751688823247</v>
       </c>
       <c r="D14">
-        <v>1.038873625456799</v>
+        <v>0.9803205193921433</v>
       </c>
       <c r="E14">
-        <v>1.050989664169513</v>
+        <v>0.9792747477173882</v>
       </c>
       <c r="F14">
-        <v>1.057525570688526</v>
+        <v>0.9821851031989167</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035551096655843</v>
+        <v>1.027237065407411</v>
       </c>
       <c r="J14">
-        <v>1.043193562145869</v>
+        <v>0.9832450491927747</v>
       </c>
       <c r="K14">
-        <v>1.042433817608628</v>
+        <v>0.9956408262006484</v>
       </c>
       <c r="L14">
-        <v>1.054505733879683</v>
+        <v>0.9946158874927025</v>
       </c>
       <c r="M14">
-        <v>1.061018301984982</v>
+        <v>0.9974684099694965</v>
       </c>
       <c r="N14">
-        <v>1.04467501666009</v>
+        <v>0.9846413699424117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036809634972777</v>
+        <v>0.9528287368454755</v>
       </c>
       <c r="D15">
-        <v>1.039010247732735</v>
+        <v>0.9811882147129624</v>
       </c>
       <c r="E15">
-        <v>1.051141515079452</v>
+        <v>0.980153323729489</v>
       </c>
       <c r="F15">
-        <v>1.057689096212327</v>
+        <v>0.9831447824941739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035594685526902</v>
+        <v>1.027585046358536</v>
       </c>
       <c r="J15">
-        <v>1.043335246948447</v>
+        <v>0.9841407466585553</v>
       </c>
       <c r="K15">
-        <v>1.042550501683015</v>
+        <v>0.9963998765745729</v>
       </c>
       <c r="L15">
-        <v>1.054637861115917</v>
+        <v>0.9953854115484299</v>
       </c>
       <c r="M15">
-        <v>1.061162205412121</v>
+        <v>0.998317981191116</v>
       </c>
       <c r="N15">
-        <v>1.04481690267134</v>
+        <v>0.9855383394013321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03785485003422</v>
+        <v>0.959416302921813</v>
       </c>
       <c r="D16">
-        <v>1.039804482481406</v>
+        <v>0.9861472730474441</v>
       </c>
       <c r="E16">
-        <v>1.05202489159436</v>
+        <v>0.9851843859518726</v>
       </c>
       <c r="F16">
-        <v>1.058640325843706</v>
+        <v>0.9886376079734182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035847471432233</v>
+        <v>1.029568696397337</v>
       </c>
       <c r="J16">
-        <v>1.044158775586286</v>
+        <v>0.9892557685313896</v>
       </c>
       <c r="K16">
-        <v>1.043228490716019</v>
+        <v>1.000733801522132</v>
       </c>
       <c r="L16">
-        <v>1.0554062498167</v>
+        <v>0.9997889128691426</v>
       </c>
       <c r="M16">
-        <v>1.061999047529095</v>
+        <v>1.003177798734209</v>
       </c>
       <c r="N16">
-        <v>1.045641600814304</v>
+        <v>0.9906606251919269</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038509564677388</v>
+        <v>0.9634425933342284</v>
       </c>
       <c r="D17">
-        <v>1.040301842156377</v>
+        <v>0.9891814250098516</v>
       </c>
       <c r="E17">
-        <v>1.05257861125379</v>
+        <v>0.9882709168300252</v>
       </c>
       <c r="F17">
-        <v>1.059236522530102</v>
+        <v>0.9920052085502985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03600523004666</v>
+        <v>1.030777848826425</v>
       </c>
       <c r="J17">
-        <v>1.044674359977269</v>
+        <v>0.9923819120285913</v>
       </c>
       <c r="K17">
-        <v>1.043652758705302</v>
+        <v>1.0033818398494</v>
       </c>
       <c r="L17">
-        <v>1.055887674973984</v>
+        <v>1.002487773012045</v>
       </c>
       <c r="M17">
-        <v>1.062523334137406</v>
+        <v>1.006154882712268</v>
       </c>
       <c r="N17">
-        <v>1.046157917394261</v>
+        <v>0.9937912081714682</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038891121304108</v>
+        <v>0.9657549945326868</v>
       </c>
       <c r="D18">
-        <v>1.040591643037928</v>
+        <v>0.9909250547309557</v>
       </c>
       <c r="E18">
-        <v>1.052901445608273</v>
+        <v>0.990047542103265</v>
       </c>
       <c r="F18">
-        <v>1.059584102630851</v>
+        <v>0.993942863031841</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036096958267842</v>
+        <v>1.031471070042084</v>
       </c>
       <c r="J18">
-        <v>1.044974737199197</v>
+        <v>0.9941772207842429</v>
       </c>
       <c r="K18">
-        <v>1.043899863597761</v>
+        <v>1.004902294008348</v>
       </c>
       <c r="L18">
-        <v>1.056168281247644</v>
+        <v>1.004040308159905</v>
       </c>
       <c r="M18">
-        <v>1.062828913173848</v>
+        <v>1.007866976118484</v>
       </c>
       <c r="N18">
-        <v>1.046458721186298</v>
+        <v>0.9955890664714776</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039021167162497</v>
+        <v>0.966537533296523</v>
       </c>
       <c r="D19">
-        <v>1.040690406955043</v>
+        <v>0.9915152820541555</v>
       </c>
       <c r="E19">
-        <v>1.05301150014076</v>
+        <v>0.9906494209687651</v>
       </c>
       <c r="F19">
-        <v>1.059702589707619</v>
+        <v>0.9945991703060092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036128186196256</v>
+        <v>1.031705449525441</v>
       </c>
       <c r="J19">
-        <v>1.045077098285613</v>
+        <v>0.9947847450047451</v>
       </c>
       <c r="K19">
-        <v>1.043984058607271</v>
+        <v>1.00541675829799</v>
       </c>
       <c r="L19">
-        <v>1.056263926912521</v>
+        <v>1.004566111586838</v>
       </c>
       <c r="M19">
-        <v>1.062933069258186</v>
+        <v>1.008446736979967</v>
       </c>
       <c r="N19">
-        <v>1.046561227637197</v>
+        <v>0.9961974534460571</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038439353955384</v>
+        <v>0.9630143861459612</v>
       </c>
       <c r="D20">
-        <v>1.040248511333351</v>
+        <v>0.9888586239910688</v>
       </c>
       <c r="E20">
-        <v>1.052519217018943</v>
+        <v>0.987942239974005</v>
       </c>
       <c r="F20">
-        <v>1.059172574064248</v>
+        <v>0.991646680820324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035988334034082</v>
+        <v>1.030649378367418</v>
       </c>
       <c r="J20">
-        <v>1.044619079392132</v>
+        <v>0.992049448498959</v>
       </c>
       <c r="K20">
-        <v>1.043607276424231</v>
+        <v>1.00310025156804</v>
       </c>
       <c r="L20">
-        <v>1.055836043448174</v>
+        <v>1.002200476735829</v>
       </c>
       <c r="M20">
-        <v>1.062467106846016</v>
+        <v>1.005838020990584</v>
       </c>
       <c r="N20">
-        <v>1.046102558304352</v>
+        <v>0.9934582725054899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036543943154268</v>
+        <v>0.9511215100576024</v>
       </c>
       <c r="D21">
-        <v>1.03880831093347</v>
+        <v>0.9799041425114592</v>
       </c>
       <c r="E21">
-        <v>1.050917080179689</v>
+        <v>0.9788533301081191</v>
       </c>
       <c r="F21">
-        <v>1.057447405176588</v>
+        <v>0.9817247340670339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035530247465331</v>
+        <v>1.027069989666233</v>
       </c>
       <c r="J21">
-        <v>1.043125824978375</v>
+        <v>0.982815159829044</v>
       </c>
       <c r="K21">
-        <v>1.042378028897339</v>
+        <v>0.9952765079660905</v>
       </c>
       <c r="L21">
-        <v>1.054442573333998</v>
+        <v>0.9942467217554705</v>
       </c>
       <c r="M21">
-        <v>1.060949511531402</v>
+        <v>0.9970608105172143</v>
       </c>
       <c r="N21">
-        <v>1.044607183298049</v>
+        <v>0.9842108700864758</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035349174837594</v>
+        <v>0.9432711908411714</v>
       </c>
       <c r="D22">
-        <v>1.037900024424536</v>
+        <v>0.9740058586713535</v>
       </c>
       <c r="E22">
-        <v>1.049908421651782</v>
+        <v>0.9728961415303345</v>
       </c>
       <c r="F22">
-        <v>1.056361109047541</v>
+        <v>0.9752134516045267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03523959381533</v>
+        <v>1.024697092579318</v>
       </c>
       <c r="J22">
-        <v>1.042183687054715</v>
+        <v>0.9767202306691587</v>
       </c>
       <c r="K22">
-        <v>1.041601815028599</v>
+        <v>0.9901104717597738</v>
       </c>
       <c r="L22">
-        <v>1.05356457655262</v>
+        <v>0.9890243558558437</v>
       </c>
       <c r="M22">
-        <v>1.059993216001792</v>
+        <v>0.9912924626442273</v>
       </c>
       <c r="N22">
-        <v>1.043663707430473</v>
+        <v>0.9781072854280851</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035982837911154</v>
+        <v>0.947470699359055</v>
       </c>
       <c r="D23">
-        <v>1.038381790638369</v>
+        <v>0.9771598299803835</v>
       </c>
       <c r="E23">
-        <v>1.050443259837543</v>
+        <v>0.9760787129759875</v>
       </c>
       <c r="F23">
-        <v>1.056937131595188</v>
+        <v>0.978692853233442</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035393926009059</v>
+        <v>1.025967348366237</v>
       </c>
       <c r="J23">
-        <v>1.042683445846802</v>
+        <v>0.9799805683613414</v>
       </c>
       <c r="K23">
-        <v>1.042013620076422</v>
+        <v>0.9928740878718574</v>
       </c>
       <c r="L23">
-        <v>1.054030198995039</v>
+        <v>0.9918152345861325</v>
       </c>
       <c r="M23">
-        <v>1.060500370762317</v>
+        <v>0.994375652399981</v>
       </c>
       <c r="N23">
-        <v>1.044164175937367</v>
+        <v>0.9813722531737565</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038471080169916</v>
+        <v>0.9632079855003197</v>
       </c>
       <c r="D24">
-        <v>1.040272610165599</v>
+        <v>0.9890045643163553</v>
       </c>
       <c r="E24">
-        <v>1.052546055152785</v>
+        <v>0.988090827821962</v>
       </c>
       <c r="F24">
-        <v>1.05920147015291</v>
+        <v>0.9918087659561688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035995969510105</v>
+        <v>1.03070746575427</v>
       </c>
       <c r="J24">
-        <v>1.044644059404217</v>
+        <v>0.9921997609798331</v>
       </c>
       <c r="K24">
-        <v>1.043627829032358</v>
+        <v>1.003227563363831</v>
       </c>
       <c r="L24">
-        <v>1.055859374133061</v>
+        <v>1.002330360231694</v>
       </c>
       <c r="M24">
-        <v>1.062492514244803</v>
+        <v>1.005981272221421</v>
       </c>
       <c r="N24">
-        <v>1.04612757379092</v>
+        <v>0.9936087984473275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041345755358387</v>
+        <v>0.980070783104159</v>
       </c>
       <c r="D25">
-        <v>1.042455042558827</v>
+        <v>1.001734957665437</v>
       </c>
       <c r="E25">
-        <v>1.054980733578801</v>
+        <v>1.001110343056633</v>
       </c>
       <c r="F25">
-        <v>1.06182242296154</v>
+        <v>1.005996149729246</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036683255943923</v>
+        <v>1.035739628830685</v>
       </c>
       <c r="J25">
-        <v>1.046905377023637</v>
+        <v>1.005287976088089</v>
       </c>
       <c r="K25">
-        <v>1.045486802772753</v>
+        <v>1.014306400222317</v>
       </c>
       <c r="L25">
-        <v>1.05797417872744</v>
+        <v>1.013691446797929</v>
       </c>
       <c r="M25">
-        <v>1.064795355829644</v>
+        <v>1.018502090887586</v>
       </c>
       <c r="N25">
-        <v>1.048392102740736</v>
+        <v>1.006715600322277</v>
       </c>
     </row>
   </sheetData>
